--- a/data/trans_orig/P6604-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P6604-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>53497</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40977</v>
+        <v>42374</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>65971</v>
+        <v>67131</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3029789036332345</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2320690403798462</v>
+        <v>0.2399815785178411</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3736206406442983</v>
+        <v>0.3801938813712545</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>73</v>
@@ -765,19 +765,19 @@
         <v>71053</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>58603</v>
+        <v>58503</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>81735</v>
+        <v>83013</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5016491914454979</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4137509820967081</v>
+        <v>0.4130475726349456</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5770731374738926</v>
+        <v>0.5860954153130538</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>126</v>
@@ -786,19 +786,19 @@
         <v>124550</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>105627</v>
+        <v>108697</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>142409</v>
+        <v>142696</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3914091365598698</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.331943405887043</v>
+        <v>0.3415894105434965</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.447532882771179</v>
+        <v>0.4484342131047585</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>45927</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34550</v>
+        <v>34008</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60927</v>
+        <v>59019</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2601043205908203</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1956738441801241</v>
+        <v>0.1926012090440828</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3450586535490235</v>
+        <v>0.3342485139836845</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>32</v>
@@ -836,19 +836,19 @@
         <v>33012</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23503</v>
+        <v>22807</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43444</v>
+        <v>42954</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2330719346120258</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1659376154215775</v>
+        <v>0.1610254956216582</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3067275067025235</v>
+        <v>0.3032650151556467</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>75</v>
@@ -857,19 +857,19 @@
         <v>78939</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>63903</v>
+        <v>63423</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>96382</v>
+        <v>94754</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2480719215089484</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2008214530048271</v>
+        <v>0.1993125380271323</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3028888935622871</v>
+        <v>0.2977731157239291</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>40495</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30974</v>
+        <v>29218</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>54288</v>
+        <v>52847</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2293385981410262</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1754219223479719</v>
+        <v>0.1654731924192526</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3074552238979461</v>
+        <v>0.2992978345378907</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -907,19 +907,19 @@
         <v>23643</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15741</v>
+        <v>16206</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33724</v>
+        <v>33271</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1669267390132009</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1111380669755798</v>
+        <v>0.1144190052095516</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2381001372389499</v>
+        <v>0.2349018203723193</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>64</v>
@@ -928,19 +928,19 @@
         <v>64138</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>50723</v>
+        <v>49841</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>80577</v>
+        <v>79344</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2015584237584668</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1594019187048716</v>
+        <v>0.1566310542153545</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2532203752423446</v>
+        <v>0.2493445559646249</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>36652</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26271</v>
+        <v>25863</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49199</v>
+        <v>49246</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.207578177634919</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1487862513655211</v>
+        <v>0.1464762319666334</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2786361132681804</v>
+        <v>0.2789027273423106</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -978,19 +978,19 @@
         <v>13930</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7653</v>
+        <v>8107</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>22170</v>
+        <v>22924</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09835213492927543</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05402891944278236</v>
+        <v>0.05723634256273211</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1565227327957427</v>
+        <v>0.16184669629655</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>49</v>
@@ -999,19 +999,19 @@
         <v>50583</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38821</v>
+        <v>38135</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>64764</v>
+        <v>66426</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.158960518172715</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1219979146566959</v>
+        <v>0.1198435988132001</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2035266946667151</v>
+        <v>0.2087483978059012</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>175175</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>153634</v>
+        <v>153777</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>198730</v>
+        <v>197621</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.315980991905708</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2771251667462705</v>
+        <v>0.2773832130068195</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3584693488189429</v>
+        <v>0.3564687129291134</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>174</v>
@@ -1124,19 +1124,19 @@
         <v>183425</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>164504</v>
+        <v>164258</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>202742</v>
+        <v>201680</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5371525744669451</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4817425615359875</v>
+        <v>0.4810207515838354</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5937215392231259</v>
+        <v>0.5906116052832746</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>340</v>
@@ -1145,19 +1145,19 @@
         <v>358601</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>326248</v>
+        <v>327772</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>388382</v>
+        <v>389666</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4002852094407979</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3641714620606395</v>
+        <v>0.3658728650816462</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4335284202008841</v>
+        <v>0.434961364409076</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>162972</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>141675</v>
+        <v>140809</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>186755</v>
+        <v>184320</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2939682508138338</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.25555341073224</v>
+        <v>0.253991248380167</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3368688731038018</v>
+        <v>0.3324756849355275</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>76</v>
@@ -1195,19 +1195,19 @@
         <v>79670</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>64521</v>
+        <v>65498</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>96375</v>
+        <v>97489</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2333090893464604</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1889456820881062</v>
+        <v>0.1918073918288605</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2822287541324258</v>
+        <v>0.2854929021240717</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>234</v>
@@ -1216,19 +1216,19 @@
         <v>242642</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>214512</v>
+        <v>217366</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>268633</v>
+        <v>270253</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2708467309303936</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2394478833115486</v>
+        <v>0.2426331295673024</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2998596436581392</v>
+        <v>0.3016676788715588</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>111401</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>93604</v>
+        <v>92932</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>132174</v>
+        <v>131548</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2009442535085875</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1688424627346174</v>
+        <v>0.167630026417082</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2384159703593053</v>
+        <v>0.2372852120591557</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>43</v>
@@ -1266,19 +1266,19 @@
         <v>46855</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>34686</v>
+        <v>34233</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>61270</v>
+        <v>61375</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1372134719649828</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1015768827810573</v>
+        <v>0.1002485289922714</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.179425998092665</v>
+        <v>0.1797330066467956</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>150</v>
@@ -1287,19 +1287,19 @@
         <v>158256</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>135359</v>
+        <v>135747</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>185125</v>
+        <v>181608</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.176651920792445</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1510936776085476</v>
+        <v>0.1515267444879549</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2066441020472063</v>
+        <v>0.2027180291100491</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>104838</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>84149</v>
+        <v>86319</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>124672</v>
+        <v>126601</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1891065037718707</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1517885370683573</v>
+        <v>0.1557026317052103</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2248825006793534</v>
+        <v>0.228363329865521</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>30</v>
@@ -1337,19 +1337,19 @@
         <v>31527</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>21860</v>
+        <v>22052</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>42901</v>
+        <v>43148</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09232486422161164</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06401475012944506</v>
+        <v>0.06457934743773187</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1256344914621883</v>
+        <v>0.126357835912257</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>124</v>
@@ -1358,19 +1358,19 @@
         <v>136365</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>115081</v>
+        <v>115566</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>159796</v>
+        <v>158710</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1522161388363635</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1284584020521119</v>
+        <v>0.1289993736406672</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1783709349960152</v>
+        <v>0.1771588193795777</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>197764</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>173913</v>
+        <v>174871</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>222035</v>
+        <v>220432</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3484128786373732</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.306393487135544</v>
+        <v>0.3080814500812759</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3911736260081536</v>
+        <v>0.3883485260887825</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>137</v>
@@ -1483,19 +1483,19 @@
         <v>146883</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>128822</v>
+        <v>128294</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>162454</v>
+        <v>164593</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4822993755960063</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4229953460654059</v>
+        <v>0.4212615580657143</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5334271311277885</v>
+        <v>0.5404516396412875</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>331</v>
@@ -1504,19 +1504,19 @@
         <v>344646</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>315829</v>
+        <v>315186</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>372005</v>
+        <v>375855</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3951642800622637</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3621229324655071</v>
+        <v>0.361386030495783</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4265324896184533</v>
+        <v>0.4309472391443218</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>140193</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>118726</v>
+        <v>120396</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>161855</v>
+        <v>160886</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2469869143646948</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2091663459355309</v>
+        <v>0.2121097426037132</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2851498596688793</v>
+        <v>0.2834439361605636</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>77</v>
@@ -1554,19 +1554,19 @@
         <v>79662</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>65466</v>
+        <v>65713</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>95203</v>
+        <v>95939</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2615755977261807</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2149608733381313</v>
+        <v>0.2157713180786686</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3126064853717493</v>
+        <v>0.3150227479109549</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>211</v>
@@ -1575,19 +1575,19 @@
         <v>219855</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>193495</v>
+        <v>196403</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>245054</v>
+        <v>248114</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2520810904585258</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2218573005090163</v>
+        <v>0.2251920471280419</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2809734268704115</v>
+        <v>0.2844817869505386</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>137227</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>117362</v>
+        <v>117066</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>160173</v>
+        <v>157217</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2417611185401865</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2067649166073658</v>
+        <v>0.2062422915747212</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2821861549283212</v>
+        <v>0.2769796204207431</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>44</v>
@@ -1625,19 +1625,19 @@
         <v>45720</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33747</v>
+        <v>33256</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>59509</v>
+        <v>58493</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1501233589759669</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1108105865533522</v>
+        <v>0.1091986108727013</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1954011692916866</v>
+        <v>0.1920641432551463</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>177</v>
@@ -1646,19 +1646,19 @@
         <v>182946</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>158482</v>
+        <v>158334</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>206841</v>
+        <v>207635</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.20976241978875</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1817119224185809</v>
+        <v>0.1815419761736261</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2371594575545805</v>
+        <v>0.2380693330465186</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>92430</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>75250</v>
+        <v>75766</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>112099</v>
+        <v>112035</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1628390884577455</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1325723012380329</v>
+        <v>0.1334825446304564</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1974911458181839</v>
+        <v>0.1973799146146988</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -1696,19 +1696,19 @@
         <v>32282</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22074</v>
+        <v>23069</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>44579</v>
+        <v>46038</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.106001667701846</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07248243318937311</v>
+        <v>0.07574984727002276</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1463788019706823</v>
+        <v>0.1511698379195141</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>117</v>
@@ -1717,19 +1717,19 @@
         <v>124712</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>103979</v>
+        <v>102927</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>146247</v>
+        <v>144419</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1429922096904605</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1192206306428274</v>
+        <v>0.1180144591494683</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1676833895127979</v>
+        <v>0.1655876677248973</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>156397</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>134785</v>
+        <v>137362</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>176640</v>
+        <v>179186</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3584208544325612</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3088926029478073</v>
+        <v>0.3147968546039891</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4048121622752663</v>
+        <v>0.4106465350564757</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>77</v>
@@ -1842,19 +1842,19 @@
         <v>80383</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>67486</v>
+        <v>67075</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>94720</v>
+        <v>92044</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4762002325646869</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3997977433878876</v>
+        <v>0.397363447742172</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5611315431263393</v>
+        <v>0.5452821588241258</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>222</v>
@@ -1863,19 +1863,19 @@
         <v>236780</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>211968</v>
+        <v>212159</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>262828</v>
+        <v>260189</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3912742927102259</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3502717307565257</v>
+        <v>0.3505875240193659</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4343168228484434</v>
+        <v>0.4299558969350911</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>83018</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>66851</v>
+        <v>67622</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>99453</v>
+        <v>100661</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1902545993886265</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1532042398669521</v>
+        <v>0.1549721510761268</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2279207449753819</v>
+        <v>0.2306881005905815</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>33</v>
@@ -1913,19 +1913,19 @@
         <v>37061</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>26488</v>
+        <v>25954</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>49032</v>
+        <v>49492</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.219556822741294</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1569166909752694</v>
+        <v>0.1537550179721455</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2904733162824246</v>
+        <v>0.2931967937458343</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>113</v>
@@ -1934,19 +1934,19 @@
         <v>120079</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>103278</v>
+        <v>100144</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>142230</v>
+        <v>138733</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.198428176135103</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1706642842081909</v>
+        <v>0.1654860789813856</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2350310700728644</v>
+        <v>0.2292524193846426</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>113327</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>94639</v>
+        <v>93050</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>134012</v>
+        <v>131921</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2597151342387806</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2168886679995871</v>
+        <v>0.2132455579948621</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3071202411859814</v>
+        <v>0.3023286766273601</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>32</v>
@@ -1984,19 +1984,19 @@
         <v>31237</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>21503</v>
+        <v>21670</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>40776</v>
+        <v>42190</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1850531134422311</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1273860436889153</v>
+        <v>0.1283771846297347</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2415633698596596</v>
+        <v>0.2499364132438406</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>136</v>
@@ -2005,19 +2005,19 @@
         <v>144564</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>123847</v>
+        <v>125503</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>167141</v>
+        <v>167400</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2388888730475093</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2046546275290957</v>
+        <v>0.2073916758383632</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2761963338731046</v>
+        <v>0.2766240920471643</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>83609</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>66521</v>
+        <v>67599</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>101413</v>
+        <v>102851</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1916094119400317</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1524492523247406</v>
+        <v>0.1549185404969539</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.232411980956296</v>
+        <v>0.2357071416586448</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>19</v>
@@ -2055,19 +2055,19 @@
         <v>20119</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12360</v>
+        <v>12559</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29602</v>
+        <v>29601</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1191898312517881</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07322338480321797</v>
+        <v>0.0744029100331695</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1753660277938023</v>
+        <v>0.1753610259282151</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>96</v>
@@ -2076,19 +2076,19 @@
         <v>103728</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>84712</v>
+        <v>85919</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>126339</v>
+        <v>124189</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1714086581071618</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1399847072625119</v>
+        <v>0.14197904697389</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2087728302191829</v>
+        <v>0.2052201133122943</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>56603</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>45172</v>
+        <v>44784</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>68188</v>
+        <v>68562</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3464755119223693</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2765046874654482</v>
+        <v>0.2741317211840634</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.41739191543698</v>
+        <v>0.4196763181614052</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>30</v>
@@ -2201,19 +2201,19 @@
         <v>31311</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>23568</v>
+        <v>23079</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>39155</v>
+        <v>39182</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4870734974900515</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3666278425206301</v>
+        <v>0.3590141315222737</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6090947900607171</v>
+        <v>0.6095107868918783</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>87</v>
@@ -2222,19 +2222,19 @@
         <v>87914</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>73618</v>
+        <v>74269</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>103666</v>
+        <v>102036</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3861773309067078</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3233823171256549</v>
+        <v>0.3262407220182065</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4553709156975664</v>
+        <v>0.4482135266224869</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>45680</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33957</v>
+        <v>34729</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56804</v>
+        <v>57521</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2796165361273093</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.207852985894779</v>
+        <v>0.2125839968283866</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3477079879669753</v>
+        <v>0.3520965617991687</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>16</v>
@@ -2272,19 +2272,19 @@
         <v>16737</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>10346</v>
+        <v>10381</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24585</v>
+        <v>24310</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2603598823367726</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1609455159459658</v>
+        <v>0.1614788110444593</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3824495963824829</v>
+        <v>0.3781682124301625</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>62</v>
@@ -2296,16 +2296,16 @@
         <v>49958</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>75458</v>
+        <v>76250</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2741788751256306</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2194501147288733</v>
+        <v>0.2194499887165038</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3314640161274751</v>
+        <v>0.3349413024335332</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>39958</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>29359</v>
+        <v>30203</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>50725</v>
+        <v>50496</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2445909922147399</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1797087235487839</v>
+        <v>0.1848780734349589</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3104950824903945</v>
+        <v>0.3090953419862205</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -2343,19 +2343,19 @@
         <v>8723</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4083</v>
+        <v>3962</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14618</v>
+        <v>15138</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1356941217526762</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06352229629025048</v>
+        <v>0.06163211575828566</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2273988855859128</v>
+        <v>0.2354895989406348</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>51</v>
@@ -2364,19 +2364,19 @@
         <v>48681</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>36556</v>
+        <v>38355</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>61174</v>
+        <v>61161</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2138408799596494</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1605807789647433</v>
+        <v>0.1684828593084667</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2687199983534092</v>
+        <v>0.2686593003929682</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>21126</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>13579</v>
+        <v>13541</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>30600</v>
+        <v>30604</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1293169597355816</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08311734760495676</v>
+        <v>0.08288670793641364</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1873082911922647</v>
+        <v>0.1873299128069042</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>7</v>
@@ -2414,19 +2414,19 @@
         <v>7513</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3043</v>
+        <v>3372</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>14243</v>
+        <v>13766</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1168724984204998</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04733421509501582</v>
+        <v>0.05245830976091492</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2215600549669664</v>
+        <v>0.214149361072722</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>28</v>
@@ -2435,19 +2435,19 @@
         <v>28639</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>19921</v>
+        <v>19495</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>39122</v>
+        <v>39492</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1258029140080122</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.08750838273563136</v>
+        <v>0.08563563161885207</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1718527695830049</v>
+        <v>0.1734743729346343</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>639436</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>598392</v>
+        <v>594582</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>683424</v>
+        <v>682163</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.336848977863016</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3152271995160371</v>
+        <v>0.3132202153108283</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3600209881651917</v>
+        <v>0.3593569101298614</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>491</v>
@@ -2560,19 +2560,19 @@
         <v>513055</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>481592</v>
+        <v>479783</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>544273</v>
+        <v>547403</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5026267812124859</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.4718039625783237</v>
+        <v>0.4700308011046605</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5332102459820598</v>
+        <v>0.5362765945574109</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1106</v>
@@ -2581,19 +2581,19 @@
         <v>1152491</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1099997</v>
+        <v>1094198</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1207755</v>
+        <v>1202300</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3948192376164926</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3768358479650121</v>
+        <v>0.3748491712823926</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4137514266433967</v>
+        <v>0.4118826337498727</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>477790</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>443125</v>
+        <v>433636</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>518654</v>
+        <v>513960</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2516950499294701</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2334340931848377</v>
+        <v>0.2284354436877689</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.273221779071332</v>
+        <v>0.2707493280001431</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>234</v>
@@ -2631,19 +2631,19 @@
         <v>246142</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>219363</v>
+        <v>218436</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>272109</v>
+        <v>273150</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2411390500482498</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2149039032030391</v>
+        <v>0.2139961931074312</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2665783240819459</v>
+        <v>0.2675982408746951</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>695</v>
@@ -2652,19 +2652,19 @@
         <v>723932</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>677782</v>
+        <v>679302</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>775121</v>
+        <v>775920</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2480037592819399</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2321938209437642</v>
+        <v>0.2327144373632501</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.265540090359111</v>
+        <v>0.2658139798488524</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>442407</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>402259</v>
+        <v>405138</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>476787</v>
+        <v>479310</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2330557997410331</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2119063106903297</v>
+        <v>0.2134230058142935</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2511667468718968</v>
+        <v>0.2524958672970748</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>152</v>
@@ -2702,19 +2702,19 @@
         <v>156178</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>132874</v>
+        <v>135293</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>179110</v>
+        <v>181468</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1530037882401575</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1301732041259401</v>
+        <v>0.1325430757277471</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1754691941123021</v>
+        <v>0.1777791477818428</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>578</v>
@@ -2723,19 +2723,19 @@
         <v>598585</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>558458</v>
+        <v>555452</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>648855</v>
+        <v>643825</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.20506269205875</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1913158823522236</v>
+        <v>0.1902861171866291</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2222840207419148</v>
+        <v>0.2205610705419053</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>338655</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>307134</v>
+        <v>305679</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>373640</v>
+        <v>373738</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1784001724664808</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1617953510107068</v>
+        <v>0.16102885710637</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1968299646841961</v>
+        <v>0.1968816189007553</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>99</v>
@@ -2773,19 +2773,19 @@
         <v>105372</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>86318</v>
+        <v>83803</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>126806</v>
+        <v>126722</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1032303804991068</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08456338398393218</v>
+        <v>0.08210015323435495</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1242281473265921</v>
+        <v>0.1241462677727238</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>414</v>
@@ -2794,19 +2794,19 @@
         <v>444027</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>401989</v>
+        <v>405064</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>484176</v>
+        <v>483545</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1521143110428175</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1377130651456754</v>
+        <v>0.1387663606754643</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1658685034467978</v>
+        <v>0.165652264858317</v>
       </c>
     </row>
     <row r="33">
@@ -3139,19 +3139,19 @@
         <v>25560</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>17758</v>
+        <v>17411</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35886</v>
+        <v>35770</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3121655246400564</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2168791122241303</v>
+        <v>0.2126375122192905</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4382758567179417</v>
+        <v>0.43685598265467</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -3160,19 +3160,19 @@
         <v>36023</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27333</v>
+        <v>26915</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44431</v>
+        <v>45398</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4148810217017262</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.314796378955105</v>
+        <v>0.3099863659788956</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5117096976228795</v>
+        <v>0.5228554393811541</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>59</v>
@@ -3181,19 +3181,19 @@
         <v>61583</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49819</v>
+        <v>48857</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75068</v>
+        <v>74005</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3650294158435477</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2952954949550828</v>
+        <v>0.2895935115299956</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4449578020408709</v>
+        <v>0.4386545757288883</v>
       </c>
     </row>
     <row r="5">
@@ -3210,19 +3210,19 @@
         <v>24186</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15614</v>
+        <v>16072</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34118</v>
+        <v>33971</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2953889091746604</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1906949770099811</v>
+        <v>0.1962870579077475</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4166871490766291</v>
+        <v>0.4148844860144051</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>29</v>
@@ -3231,19 +3231,19 @@
         <v>29374</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21284</v>
+        <v>21639</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38461</v>
+        <v>39117</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3383037230524762</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2451246436091486</v>
+        <v>0.2492170033625796</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4429594946735297</v>
+        <v>0.4505169933166284</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>50</v>
@@ -3252,19 +3252,19 @@
         <v>53561</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>42489</v>
+        <v>41865</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>67812</v>
+        <v>66061</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3174755866162625</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2518502982309452</v>
+        <v>0.2481525048126993</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4019510204797548</v>
+        <v>0.3915709211265983</v>
       </c>
     </row>
     <row r="6">
@@ -3281,19 +3281,19 @@
         <v>23909</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16308</v>
+        <v>15888</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32815</v>
+        <v>32621</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2920038386137815</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1991682961566024</v>
+        <v>0.1940423900692382</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4007695950439691</v>
+        <v>0.3984040725228032</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>14</v>
@@ -3302,19 +3302,19 @@
         <v>13662</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>8528</v>
+        <v>7821</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21729</v>
+        <v>21424</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1573477222312375</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09821577034263032</v>
+        <v>0.09006900167099594</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2502528499265709</v>
+        <v>0.2467410534596417</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>38</v>
@@ -3323,19 +3323,19 @@
         <v>37571</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>26845</v>
+        <v>27683</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>48384</v>
+        <v>48268</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2227012845692093</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1591193371034299</v>
+        <v>0.1640860282700189</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2867904298238703</v>
+        <v>0.2861065291441973</v>
       </c>
     </row>
     <row r="7">
@@ -3352,19 +3352,19 @@
         <v>8224</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4034</v>
+        <v>3947</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15135</v>
+        <v>14421</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1004417275715017</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04926202543199635</v>
+        <v>0.04820589207750862</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1848413426046545</v>
+        <v>0.1761276855442013</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -3373,19 +3373,19 @@
         <v>7768</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3588</v>
+        <v>3255</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14477</v>
+        <v>15366</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08946753301456012</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04131944927413583</v>
+        <v>0.03748551948754986</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1667356573638676</v>
+        <v>0.1769660816465539</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -3394,19 +3394,19 @@
         <v>15992</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9314</v>
+        <v>9351</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24571</v>
+        <v>25329</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09479371297098046</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05520730577721709</v>
+        <v>0.05542922278150096</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1456392771420881</v>
+        <v>0.1501373256905892</v>
       </c>
     </row>
     <row r="8">
@@ -3498,19 +3498,19 @@
         <v>128047</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>110427</v>
+        <v>109204</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>148350</v>
+        <v>147154</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3354507908792135</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2892913718317494</v>
+        <v>0.2860869050544442</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3886406325955262</v>
+        <v>0.3855079734901326</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>95</v>
@@ -3519,19 +3519,19 @@
         <v>103366</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>87292</v>
+        <v>86635</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>119793</v>
+        <v>121053</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.375341868478755</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3169747920396683</v>
+        <v>0.3145889660562035</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.434990976599904</v>
+        <v>0.4395675005498044</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>214</v>
@@ -3540,19 +3540,19 @@
         <v>231413</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>208722</v>
+        <v>205484</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>258055</v>
+        <v>255236</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.352169047483973</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3176380155703973</v>
+        <v>0.312709403169554</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3927135302541743</v>
+        <v>0.3884240161611688</v>
       </c>
     </row>
     <row r="10">
@@ -3569,19 +3569,19 @@
         <v>126868</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>107461</v>
+        <v>107985</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>146230</v>
+        <v>146016</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3323623820853589</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2815218940597292</v>
+        <v>0.2828948927094634</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3830879448743497</v>
+        <v>0.3825263445373531</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -3590,19 +3590,19 @@
         <v>103471</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>88543</v>
+        <v>87611</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>120947</v>
+        <v>120878</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3757242689036729</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3215151252959309</v>
+        <v>0.3181312088175347</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4391828441925386</v>
+        <v>0.4389306872372227</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>224</v>
@@ -3611,19 +3611,19 @@
         <v>230339</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>206820</v>
+        <v>206077</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>258538</v>
+        <v>256944</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.350535246653536</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3147437726816504</v>
+        <v>0.313612837417086</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3934487718169429</v>
+        <v>0.3910230507021819</v>
       </c>
     </row>
     <row r="11">
@@ -3640,19 +3640,19 @@
         <v>82335</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>66204</v>
+        <v>66208</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>98129</v>
+        <v>99187</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2156967686583834</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1734383735238435</v>
+        <v>0.1734490080931656</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2570734480367349</v>
+        <v>0.2598452086364225</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>43</v>
@@ -3661,19 +3661,19 @@
         <v>47098</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>35288</v>
+        <v>34995</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>61450</v>
+        <v>60633</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1710215903038332</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.128137093720931</v>
+        <v>0.1270746151212051</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2231347924280227</v>
+        <v>0.2201687367063328</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>124</v>
@@ -3682,19 +3682,19 @@
         <v>129433</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>111404</v>
+        <v>110298</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>151398</v>
+        <v>149477</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1969735067025983</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1695364314760191</v>
+        <v>0.1678542241364384</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2304002870176885</v>
+        <v>0.2274773009120798</v>
       </c>
     </row>
     <row r="12">
@@ -3711,19 +3711,19 @@
         <v>44466</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32345</v>
+        <v>32293</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>58359</v>
+        <v>59031</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1164900583770441</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08473511803929988</v>
+        <v>0.08460029828730704</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1528876215430502</v>
+        <v>0.1546456671203371</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>21</v>
@@ -3732,19 +3732,19 @@
         <v>21456</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13568</v>
+        <v>14248</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>31572</v>
+        <v>32138</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07791227231373883</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04926976400280089</v>
+        <v>0.0517354198663979</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.114644775656138</v>
+        <v>0.1166990272308003</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>62</v>
@@ -3753,19 +3753,19 @@
         <v>65922</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>51491</v>
+        <v>50599</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>82313</v>
+        <v>83373</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1003221991598926</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07835938630537359</v>
+        <v>0.07700206317137782</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1252661791645593</v>
+        <v>0.1268782511012685</v>
       </c>
     </row>
     <row r="13">
@@ -3857,19 +3857,19 @@
         <v>129495</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>110210</v>
+        <v>109760</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>149735</v>
+        <v>151207</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3051669951851225</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2597180438137793</v>
+        <v>0.2586577214895837</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3528620263130405</v>
+        <v>0.3563310560787812</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>104</v>
@@ -3878,19 +3878,19 @@
         <v>109411</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>91952</v>
+        <v>92202</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>125016</v>
+        <v>125621</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3828006467763749</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3217163033293244</v>
+        <v>0.3225911952623843</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4373957081494841</v>
+        <v>0.4395133265601257</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>224</v>
@@ -3899,19 +3899,19 @@
         <v>238907</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>212817</v>
+        <v>214949</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>267880</v>
+        <v>266000</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3364121473649113</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2996743081342244</v>
+        <v>0.3026760067659706</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3772106763364896</v>
+        <v>0.3745630572832208</v>
       </c>
     </row>
     <row r="15">
@@ -3928,19 +3928,19 @@
         <v>152831</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>135143</v>
+        <v>134349</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>174175</v>
+        <v>176424</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3601580282964432</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3184763543877737</v>
+        <v>0.3166054731001762</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4104585839901549</v>
+        <v>0.4157583218239073</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>96</v>
@@ -3949,19 +3949,19 @@
         <v>99895</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>84252</v>
+        <v>84430</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>117636</v>
+        <v>116461</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3495069516172897</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2947734944319558</v>
+        <v>0.2953989332409608</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4115766772553232</v>
+        <v>0.4074648920173322</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>246</v>
@@ -3970,19 +3970,19 @@
         <v>252726</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>228256</v>
+        <v>226522</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>279912</v>
+        <v>277784</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3558712981878179</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3214151007822578</v>
+        <v>0.318972767458735</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3941528652558599</v>
+        <v>0.3911560357118216</v>
       </c>
     </row>
     <row r="16">
@@ -3999,19 +3999,19 @@
         <v>102160</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>84190</v>
+        <v>84091</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>119759</v>
+        <v>121187</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2407487519783236</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1984019968778883</v>
+        <v>0.1981668258618259</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2822230526866201</v>
+        <v>0.2855884075578596</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>44</v>
@@ -4020,19 +4020,19 @@
         <v>46763</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35404</v>
+        <v>34894</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60507</v>
+        <v>60629</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1636107167435773</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.123869986268614</v>
+        <v>0.1220838916650109</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2116963570029046</v>
+        <v>0.2121228011153793</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>143</v>
@@ -4041,19 +4041,19 @@
         <v>148923</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>127033</v>
+        <v>125293</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>171488</v>
+        <v>169897</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2097030701076652</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.178879302689476</v>
+        <v>0.1764285103597705</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2414782895814093</v>
+        <v>0.2392371568249364</v>
       </c>
     </row>
     <row r="17">
@@ -4070,19 +4070,19 @@
         <v>39857</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28996</v>
+        <v>29133</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>53724</v>
+        <v>53654</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09392622454011071</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06833178604837979</v>
+        <v>0.06865501706908464</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1266049873088098</v>
+        <v>0.1264399098244745</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -4091,19 +4091,19 @@
         <v>29748</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20102</v>
+        <v>20607</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>41727</v>
+        <v>40926</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1040816848627581</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0703306458641202</v>
+        <v>0.07209810112030841</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1459926744239644</v>
+        <v>0.1431904797750169</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>69</v>
@@ -4112,19 +4112,19 @@
         <v>69605</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>54721</v>
+        <v>54983</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>87719</v>
+        <v>87307</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09801348433960569</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07705403830171341</v>
+        <v>0.07742394277312228</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1235201521667117</v>
+        <v>0.1229399713783162</v>
       </c>
     </row>
     <row r="18">
@@ -4216,19 +4216,19 @@
         <v>119282</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>101437</v>
+        <v>101408</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>139153</v>
+        <v>139464</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3244329437854004</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2758960494119455</v>
+        <v>0.2758185620997676</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3784807706961157</v>
+        <v>0.3793247581432262</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>69</v>
@@ -4237,19 +4237,19 @@
         <v>78524</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>63043</v>
+        <v>64565</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>93861</v>
+        <v>95827</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.350376066365863</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2812976779557112</v>
+        <v>0.2880904023274791</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4188090864503027</v>
+        <v>0.4275809694940523</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>172</v>
@@ -4258,19 +4258,19 @@
         <v>197806</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>172094</v>
+        <v>173017</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>222884</v>
+        <v>221675</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3342579614369568</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2908081469831067</v>
+        <v>0.2923683345886767</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3766347073628468</v>
+        <v>0.3745915574615843</v>
       </c>
     </row>
     <row r="20">
@@ -4287,19 +4287,19 @@
         <v>105759</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>88532</v>
+        <v>88435</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>123701</v>
+        <v>124931</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.287651694811768</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2407979148072611</v>
+        <v>0.2405323361026865</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3364527313059869</v>
+        <v>0.3397965078150518</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>71</v>
@@ -4308,19 +4308,19 @@
         <v>83979</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>68553</v>
+        <v>67250</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>101700</v>
+        <v>98748</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3747154529778651</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3058832455106098</v>
+        <v>0.3000685870804717</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4537876837603178</v>
+        <v>0.440616784319249</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>169</v>
@@ -4329,19 +4329,19 @@
         <v>189738</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>166050</v>
+        <v>164890</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>213882</v>
+        <v>214107</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3206239385399355</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2805962193688235</v>
+        <v>0.278635295994037</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3614233722080015</v>
+        <v>0.361803570461695</v>
       </c>
     </row>
     <row r="21">
@@ -4358,19 +4358,19 @@
         <v>94403</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>78058</v>
+        <v>78015</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>112192</v>
+        <v>113346</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2567659978105234</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2123087970520878</v>
+        <v>0.2121907881990502</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3051500749079569</v>
+        <v>0.3082865884313126</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>36</v>
@@ -4379,19 +4379,19 @@
         <v>43571</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>30044</v>
+        <v>32346</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>56526</v>
+        <v>59210</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1944130664775867</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1340589412783204</v>
+        <v>0.1443283079929894</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2522186228662244</v>
+        <v>0.2641972075223454</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>120</v>
@@ -4400,19 +4400,19 @@
         <v>137974</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>116224</v>
+        <v>117188</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>160186</v>
+        <v>159629</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2331520843707535</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1963988947446505</v>
+        <v>0.1980275399354673</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2706864884329316</v>
+        <v>0.2697455965771396</v>
       </c>
     </row>
     <row r="22">
@@ -4429,19 +4429,19 @@
         <v>48219</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>34895</v>
+        <v>35178</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>64809</v>
+        <v>64704</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1311493635923081</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09491106808129215</v>
+        <v>0.0956809337016214</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.176272311909984</v>
+        <v>0.1759874895180856</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -4450,19 +4450,19 @@
         <v>18040</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>10624</v>
+        <v>10698</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>27109</v>
+        <v>28871</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08049541417868517</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04740662276498304</v>
+        <v>0.04773605064555907</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1209610568765926</v>
+        <v>0.1288231516179311</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>57</v>
@@ -4471,19 +4471,19 @@
         <v>66259</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>50979</v>
+        <v>50473</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>84324</v>
+        <v>86118</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1119660156523542</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08614543852000034</v>
+        <v>0.08529071106685936</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1424929705711517</v>
+        <v>0.14552423503769</v>
       </c>
     </row>
     <row r="23">
@@ -4575,19 +4575,19 @@
         <v>47941</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>36892</v>
+        <v>36650</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>60330</v>
+        <v>60769</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3065986518644677</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2359360725058696</v>
+        <v>0.234384999091299</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3858283928789867</v>
+        <v>0.3886380840735958</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>19</v>
@@ -4596,19 +4596,19 @@
         <v>19823</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12715</v>
+        <v>13378</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>28097</v>
+        <v>28614</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2844356294598822</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1824536262171365</v>
+        <v>0.1919613149934902</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4031659553133504</v>
+        <v>0.4105786011996074</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>63</v>
@@ -4617,19 +4617,19 @@
         <v>67764</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>53901</v>
+        <v>54034</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>82853</v>
+        <v>83120</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2997660102294769</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2384417214712204</v>
+        <v>0.2390308508515545</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3665191377620832</v>
+        <v>0.3677002541013753</v>
       </c>
     </row>
     <row r="25">
@@ -4646,19 +4646,19 @@
         <v>50991</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>38879</v>
+        <v>39113</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63197</v>
+        <v>62622</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3261024590658289</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2486404424014344</v>
+        <v>0.2501369559270794</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4041653673376234</v>
+        <v>0.400484770481109</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>18</v>
@@ -4667,19 +4667,19 @@
         <v>19869</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12019</v>
+        <v>13124</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>28294</v>
+        <v>29379</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2850955035322545</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1724639317090002</v>
+        <v>0.1883104601374653</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4059982700626365</v>
+        <v>0.421563141192045</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>65</v>
@@ -4688,19 +4688,19 @@
         <v>70859</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>57146</v>
+        <v>56246</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>84910</v>
+        <v>85653</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3134604183464663</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2527960186710848</v>
+        <v>0.2488166000798446</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3756174225928855</v>
+        <v>0.3789015171584315</v>
       </c>
     </row>
     <row r="26">
@@ -4717,19 +4717,19 @@
         <v>38589</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>28639</v>
+        <v>28212</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>50137</v>
+        <v>49746</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2467865740596753</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1831548710258124</v>
+        <v>0.180422128845268</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3206391388220332</v>
+        <v>0.3181371707544978</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>17</v>
@@ -4738,19 +4738,19 @@
         <v>20279</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12722</v>
+        <v>12573</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>29429</v>
+        <v>29116</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2909827136159759</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1825486201889176</v>
+        <v>0.1804085200924032</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4222765871143785</v>
+        <v>0.4177849200033138</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>54</v>
@@ -4759,19 +4759,19 @@
         <v>58867</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>45650</v>
+        <v>46037</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>72580</v>
+        <v>74514</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2604118088189816</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2019431936770369</v>
+        <v>0.2036528436830624</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3210715424462282</v>
+        <v>0.3296276676292841</v>
       </c>
     </row>
     <row r="27">
@@ -4788,19 +4788,19 @@
         <v>18844</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>11396</v>
+        <v>12454</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>27979</v>
+        <v>30110</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1205123150100281</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.07287782110714426</v>
+        <v>0.07964949196608594</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.178934568586493</v>
+        <v>0.1925613042480701</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>9</v>
@@ -4809,19 +4809,19 @@
         <v>9721</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>5071</v>
+        <v>4604</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>17156</v>
+        <v>16158</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1394861533918874</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07276765204365382</v>
+        <v>0.06606627081104256</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2461782763784524</v>
+        <v>0.2318493615059035</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>27</v>
@@ -4830,19 +4830,19 @@
         <v>28565</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>19418</v>
+        <v>19862</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>41253</v>
+        <v>39569</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1263617626050752</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.08589744336942848</v>
+        <v>0.08786357105215803</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1824923761297995</v>
+        <v>0.1750426472674146</v>
       </c>
     </row>
     <row r="28">
@@ -4934,19 +4934,19 @@
         <v>450325</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>413375</v>
+        <v>416720</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>486591</v>
+        <v>490866</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3189350743375932</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2927652170136602</v>
+        <v>0.295134764234791</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3446198329936314</v>
+        <v>0.3476468377332491</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>322</v>
@@ -4955,19 +4955,19 @@
         <v>347148</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>315850</v>
+        <v>317906</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>376410</v>
+        <v>380998</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3685832614986785</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3353535000751048</v>
+        <v>0.3375358650755296</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3996529085057147</v>
+        <v>0.4045240469854339</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>732</v>
@@ -4976,19 +4976,19 @@
         <v>797473</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>750394</v>
+        <v>749868</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>844476</v>
+        <v>843335</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.338801080845753</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3188000596355132</v>
+        <v>0.3185763672947129</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.358770180867833</v>
+        <v>0.3582850805482495</v>
       </c>
     </row>
     <row r="30">
@@ -5005,19 +5005,19 @@
         <v>460635</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>425779</v>
+        <v>426558</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>499703</v>
+        <v>498262</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.32623631366358</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3015506036700912</v>
+        <v>0.3021020685003087</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3539060226507941</v>
+        <v>0.3528853262355258</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>312</v>
@@ -5026,19 +5026,19 @@
         <v>336589</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>306226</v>
+        <v>305455</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>366307</v>
+        <v>369617</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3573723863582318</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3251345118545295</v>
+        <v>0.3243166025910513</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3889254347211149</v>
+        <v>0.3924404132439466</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>754</v>
@@ -5047,19 +5047,19 @@
         <v>797223</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>752345</v>
+        <v>748354</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>845255</v>
+        <v>847682</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3386949643849766</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.319628822622814</v>
+        <v>0.3179331629027987</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3591010130733683</v>
+        <v>0.3601318477412287</v>
       </c>
     </row>
     <row r="31">
@@ -5076,19 +5076,19 @@
         <v>341396</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>311763</v>
+        <v>309785</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>373791</v>
+        <v>376134</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2417878058191856</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2208004225169233</v>
+        <v>0.2194000771586247</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2647309813996259</v>
+        <v>0.2663901810365706</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>154</v>
@@ -5097,19 +5097,19 @@
         <v>171373</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>144824</v>
+        <v>144850</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>195258</v>
+        <v>195392</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1819545054499386</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1537665368826097</v>
+        <v>0.1537938835118202</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2073144841168136</v>
+        <v>0.2074568382192254</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>479</v>
@@ -5118,19 +5118,19 @@
         <v>512769</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>471929</v>
+        <v>471190</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>555920</v>
+        <v>555924</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2178463730598479</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2004956935633347</v>
+        <v>0.2001819966341724</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2361789056463564</v>
+        <v>0.2361804829185941</v>
       </c>
     </row>
     <row r="32">
@@ -5147,19 +5147,19 @@
         <v>159610</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>134226</v>
+        <v>137076</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>182640</v>
+        <v>188530</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1130408061796412</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09506296996927964</v>
+        <v>0.09708153180411855</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1293517510299054</v>
+        <v>0.1335230520424364</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>82</v>
@@ -5168,19 +5168,19 @@
         <v>86734</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>70169</v>
+        <v>68606</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>107490</v>
+        <v>105084</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09208984669315097</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07450163821720973</v>
+        <v>0.07284182630467484</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1141268279118861</v>
+        <v>0.1115724980095523</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>230</v>
@@ -5189,19 +5189,19 @@
         <v>246344</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>214807</v>
+        <v>217913</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>281643</v>
+        <v>281902</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1046575817094225</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.09125927129093586</v>
+        <v>0.09257879057131829</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1196543043872864</v>
+        <v>0.1197642288069459</v>
       </c>
     </row>
     <row r="33">
@@ -5534,19 +5534,19 @@
         <v>23521</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16255</v>
+        <v>16336</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32980</v>
+        <v>31936</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2973259428250647</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2054776714355462</v>
+        <v>0.2064943981185088</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4168878270901039</v>
+        <v>0.4036919835253047</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -5555,19 +5555,19 @@
         <v>32440</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23750</v>
+        <v>24039</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41584</v>
+        <v>41769</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3531660763693245</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2585601908072729</v>
+        <v>0.2617074565095048</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4527120681665281</v>
+        <v>0.4547259769236402</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -5576,19 +5576,19 @@
         <v>55961</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43693</v>
+        <v>43727</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>68201</v>
+        <v>68274</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3273274926552163</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2555704530125061</v>
+        <v>0.2557691317041453</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3989230359413251</v>
+        <v>0.3993477653513697</v>
       </c>
     </row>
     <row r="5">
@@ -5605,19 +5605,19 @@
         <v>19156</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11495</v>
+        <v>11865</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>28602</v>
+        <v>27634</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.242146010915029</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.145301466119403</v>
+        <v>0.1499775582363825</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3615495116820198</v>
+        <v>0.3493130879730527</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -5626,19 +5626,19 @@
         <v>33114</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24925</v>
+        <v>24640</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>42598</v>
+        <v>42278</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3605002560250167</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2713533461453609</v>
+        <v>0.2682463878871205</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4637572646212904</v>
+        <v>0.4602735431741928</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>51</v>
@@ -5647,19 +5647,19 @@
         <v>52270</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>40309</v>
+        <v>40159</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>65664</v>
+        <v>65480</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3057348771462109</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.235773929745823</v>
+        <v>0.2348970155989617</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3840817171065582</v>
+        <v>0.3830017361350502</v>
       </c>
     </row>
     <row r="6">
@@ -5676,19 +5676,19 @@
         <v>26416</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18536</v>
+        <v>18491</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>36686</v>
+        <v>35887</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3339252590207656</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2343116612280293</v>
+        <v>0.2337460920096644</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4637422476451162</v>
+        <v>0.4536348435125431</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>18</v>
@@ -5697,19 +5697,19 @@
         <v>17904</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10676</v>
+        <v>11792</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25750</v>
+        <v>26868</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1949182969521943</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1162236032102311</v>
+        <v>0.1283777716351762</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.280329098542216</v>
+        <v>0.2925046326269109</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>43</v>
@@ -5718,19 +5718,19 @@
         <v>44321</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>32861</v>
+        <v>33351</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>57202</v>
+        <v>56792</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2592401887221302</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1922087735889175</v>
+        <v>0.1950784832538742</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3345873899622772</v>
+        <v>0.3321877013548239</v>
       </c>
     </row>
     <row r="7">
@@ -5747,19 +5747,19 @@
         <v>10015</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4942</v>
+        <v>4548</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17672</v>
+        <v>17545</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1266027872391407</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06247599551531399</v>
+        <v>0.05749365487148237</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2233899953437272</v>
+        <v>0.2217823519884093</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -5768,19 +5768,19 @@
         <v>8397</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3921</v>
+        <v>3989</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>15441</v>
+        <v>15154</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09141537065346445</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04269168229528417</v>
+        <v>0.04342740487137843</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1680981092052168</v>
+        <v>0.1649758869715266</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -5789,19 +5789,19 @@
         <v>18412</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11202</v>
+        <v>11123</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>27608</v>
+        <v>27574</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1076974414764426</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06552443337581804</v>
+        <v>0.06505788306036132</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1614826517125746</v>
+        <v>0.1612872335728587</v>
       </c>
     </row>
     <row r="8">
@@ -5893,19 +5893,19 @@
         <v>93270</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>77424</v>
+        <v>76643</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>111064</v>
+        <v>109770</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2717431818671714</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2255774360080553</v>
+        <v>0.223300860334749</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3235871090313043</v>
+        <v>0.319817141694742</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>103</v>
@@ -5914,19 +5914,19 @@
         <v>101403</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>85957</v>
+        <v>87679</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>115899</v>
+        <v>115706</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3717640660480041</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3151351956289288</v>
+        <v>0.3214479070480513</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4249076302020351</v>
+        <v>0.4242010422611613</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>195</v>
@@ -5935,19 +5935,19 @@
         <v>194673</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>171919</v>
+        <v>170153</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>219055</v>
+        <v>214612</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3160327255733682</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2790930986172619</v>
+        <v>0.2762257175489031</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3556131901759339</v>
+        <v>0.3484012595423058</v>
       </c>
     </row>
     <row r="10">
@@ -5964,19 +5964,19 @@
         <v>109118</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>92360</v>
+        <v>93451</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>127300</v>
+        <v>128469</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3179163619476545</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2690927804920867</v>
+        <v>0.2722701089736396</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3708900813939774</v>
+        <v>0.3742957544021434</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>93</v>
@@ -5985,19 +5985,19 @@
         <v>87560</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>73001</v>
+        <v>71284</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>103108</v>
+        <v>102314</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3210113695819702</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2676347958633869</v>
+        <v>0.2613421106536248</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.378013427688098</v>
+        <v>0.3751015946513314</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>197</v>
@@ -6006,19 +6006,19 @@
         <v>196678</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>174846</v>
+        <v>176564</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>220972</v>
+        <v>222530</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3192868404933471</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2838458092198046</v>
+        <v>0.2866341055145765</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3587255474242819</v>
+        <v>0.3612556819096797</v>
       </c>
     </row>
     <row r="11">
@@ -6035,19 +6035,19 @@
         <v>79256</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>63385</v>
+        <v>64124</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>93893</v>
+        <v>95579</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2309142552039875</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1846717337462997</v>
+        <v>0.1868252226637937</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2735575878270885</v>
+        <v>0.2784699752052544</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>64</v>
@@ -6056,19 +6056,19 @@
         <v>62104</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>48245</v>
+        <v>49193</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>74931</v>
+        <v>76633</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2276854714944893</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1768751791328613</v>
+        <v>0.1803499077486991</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2747127903589118</v>
+        <v>0.2809511831891052</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>140</v>
@@ -6077,19 +6077,19 @@
         <v>141360</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>120556</v>
+        <v>121793</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>160439</v>
+        <v>163955</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2294845402160542</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1957110360766258</v>
+        <v>0.1977194634196787</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2604573473350774</v>
+        <v>0.2661638808821644</v>
       </c>
     </row>
     <row r="12">
@@ -6106,19 +6106,19 @@
         <v>61584</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>48096</v>
+        <v>48042</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>77159</v>
+        <v>77799</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1794262009811866</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1401276906322439</v>
+        <v>0.1399711976812333</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2248034950422211</v>
+        <v>0.2266690154862411</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -6127,19 +6127,19 @@
         <v>21695</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14253</v>
+        <v>14158</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32544</v>
+        <v>31485</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07953909287553639</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05225489135787739</v>
+        <v>0.05190740801869851</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1193116661310852</v>
+        <v>0.1154304642793944</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>78</v>
@@ -6148,19 +6148,19 @@
         <v>83279</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>67192</v>
+        <v>67525</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>102992</v>
+        <v>100049</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1351958937172305</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1090795999076115</v>
+        <v>0.1096206679547365</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1671966342430065</v>
+        <v>0.1624198256256822</v>
       </c>
     </row>
     <row r="13">
@@ -6252,19 +6252,19 @@
         <v>154304</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>135560</v>
+        <v>134332</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>178097</v>
+        <v>175139</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.338959165619754</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2977832761688503</v>
+        <v>0.2950860820785483</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.391225998222731</v>
+        <v>0.3847275465302797</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>131</v>
@@ -6273,19 +6273,19 @@
         <v>131178</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>112830</v>
+        <v>114693</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>148468</v>
+        <v>148287</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.413271732899881</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3554657051493573</v>
+        <v>0.361335038635517</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4677415659851432</v>
+        <v>0.4671718908901576</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>278</v>
@@ -6294,19 +6294,19 @@
         <v>285482</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>260306</v>
+        <v>260969</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>313471</v>
+        <v>314254</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3694879363338701</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.336903599251613</v>
+        <v>0.3377614017845784</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4057123245979903</v>
+        <v>0.4067254146860608</v>
       </c>
     </row>
     <row r="15">
@@ -6323,19 +6323,19 @@
         <v>146436</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>125185</v>
+        <v>128099</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>168247</v>
+        <v>171123</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.321675376680632</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2749942802250583</v>
+        <v>0.2813948711180166</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3695886002526066</v>
+        <v>0.3759054728958374</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>101</v>
@@ -6344,19 +6344,19 @@
         <v>99166</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>82552</v>
+        <v>82331</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>117838</v>
+        <v>114977</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3124192854149757</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2600775849212977</v>
+        <v>0.2593794344634748</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.371243596029157</v>
+        <v>0.3622294342413005</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>237</v>
@@ -6365,19 +6365,19 @@
         <v>245602</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>219728</v>
+        <v>219548</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>272106</v>
+        <v>270262</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3178728288976579</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2843844008801857</v>
+        <v>0.2841518517116</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3521759042227533</v>
+        <v>0.3497884396309518</v>
       </c>
     </row>
     <row r="16">
@@ -6394,19 +6394,19 @@
         <v>106354</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>89127</v>
+        <v>90197</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>124937</v>
+        <v>125611</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2336267927750128</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1957838824794182</v>
+        <v>0.1981348381164763</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2744486140596893</v>
+        <v>0.2759300748207886</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>55</v>
@@ -6415,19 +6415,19 @@
         <v>54935</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42752</v>
+        <v>42883</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69103</v>
+        <v>68891</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1730719702785878</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1346874744681958</v>
+        <v>0.1351006469629394</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2177071113135695</v>
+        <v>0.2170379089967936</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>159</v>
@@ -6436,19 +6436,19 @@
         <v>161289</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>139910</v>
+        <v>138338</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>182863</v>
+        <v>184479</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2087499198679219</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1810800220184843</v>
+        <v>0.1790446507618507</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2366722323657071</v>
+        <v>0.2387634216677481</v>
       </c>
     </row>
     <row r="17">
@@ -6465,19 +6465,19 @@
         <v>48135</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>34950</v>
+        <v>36883</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>62450</v>
+        <v>62880</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1057386649246013</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07677546066569214</v>
+        <v>0.08102120365299625</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1371831634759616</v>
+        <v>0.1381286316805902</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -6486,19 +6486,19 @@
         <v>32134</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>23289</v>
+        <v>22584</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>43549</v>
+        <v>44367</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1012370114065555</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.073371585345696</v>
+        <v>0.07115121491644034</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1371979730033257</v>
+        <v>0.1397757444165199</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>78</v>
@@ -6507,19 +6507,19 @@
         <v>80269</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>65074</v>
+        <v>64755</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>99280</v>
+        <v>98608</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.10388931490055</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08422288731955979</v>
+        <v>0.08380933950786966</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1284944814315372</v>
+        <v>0.1276248459292558</v>
       </c>
     </row>
     <row r="18">
@@ -6611,19 +6611,19 @@
         <v>120856</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>102391</v>
+        <v>103049</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>138894</v>
+        <v>140193</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3314728150654728</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2808280304701624</v>
+        <v>0.2826317519053517</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3809440548950944</v>
+        <v>0.3845085395619858</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>82</v>
@@ -6632,19 +6632,19 @@
         <v>89261</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>75184</v>
+        <v>74782</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>106843</v>
+        <v>105600</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3686626187362215</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3105236009580789</v>
+        <v>0.3088623210441626</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4412800139556397</v>
+        <v>0.4361452440639116</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>189</v>
@@ -6653,19 +6653,19 @@
         <v>210117</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>186199</v>
+        <v>188950</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>233860</v>
+        <v>236863</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3463138593528979</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3068926369996445</v>
+        <v>0.3114264394621562</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3854458731705729</v>
+        <v>0.3903965576138584</v>
       </c>
     </row>
     <row r="20">
@@ -6682,19 +6682,19 @@
         <v>122017</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>105011</v>
+        <v>104560</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>141650</v>
+        <v>139563</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3346550096247076</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2880134857783133</v>
+        <v>0.286778166299387</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3885044073290116</v>
+        <v>0.3827797703677704</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>58</v>
@@ -6703,19 +6703,19 @@
         <v>62280</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>48726</v>
+        <v>48550</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>76153</v>
+        <v>77103</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2572283668172675</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2012478413577529</v>
+        <v>0.2005193808351617</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3145225793446338</v>
+        <v>0.3184484148957438</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>169</v>
@@ -6724,19 +6724,19 @@
         <v>184297</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>163550</v>
+        <v>159657</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>207733</v>
+        <v>206889</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3037569644211061</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2695623916873968</v>
+        <v>0.2631447721159195</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3423845110027082</v>
+        <v>0.3409923439638021</v>
       </c>
     </row>
     <row r="21">
@@ -6753,19 +6753,19 @@
         <v>74065</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>58812</v>
+        <v>58086</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>91629</v>
+        <v>90479</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2031379780441164</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1613027631747876</v>
+        <v>0.1593114977384405</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2513111856635326</v>
+        <v>0.2481557503133639</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>53</v>
@@ -6774,19 +6774,19 @@
         <v>57893</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>45096</v>
+        <v>44616</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>73628</v>
+        <v>73703</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2391088390039802</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.186254230494263</v>
+        <v>0.184272098224822</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3040938494228314</v>
+        <v>0.3044077090935476</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>121</v>
@@ -6795,19 +6795,19 @@
         <v>131958</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>113279</v>
+        <v>111278</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>155474</v>
+        <v>154360</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.21749258839077</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1867061439409543</v>
+        <v>0.1834079445747633</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2562507319418089</v>
+        <v>0.2544148690310671</v>
       </c>
     </row>
     <row r="22">
@@ -6824,19 +6824,19 @@
         <v>47666</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35703</v>
+        <v>35373</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>61496</v>
+        <v>61306</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1307341972657032</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09792260385299043</v>
+        <v>0.09701878574564847</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1686644736958193</v>
+        <v>0.1681443864637986</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -6845,19 +6845,19 @@
         <v>32686</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>22049</v>
+        <v>21890</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44817</v>
+        <v>44678</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1350001754425307</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09106734263334952</v>
+        <v>0.09041026646925578</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1851019949237937</v>
+        <v>0.1845268261794437</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>71</v>
@@ -6866,19 +6866,19 @@
         <v>80353</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>63619</v>
+        <v>64447</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>98813</v>
+        <v>98749</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.132436587835226</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1048567853411193</v>
+        <v>0.1062206047611941</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1628635572631847</v>
+        <v>0.1627575019615095</v>
       </c>
     </row>
     <row r="23">
@@ -6970,19 +6970,19 @@
         <v>46285</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>35132</v>
+        <v>35395</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>59266</v>
+        <v>59106</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2828226418081101</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2146725861326585</v>
+        <v>0.2162789954723821</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3621424920751739</v>
+        <v>0.3611602611940082</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>33</v>
@@ -6991,19 +6991,19 @@
         <v>38704</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>28465</v>
+        <v>28717</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>48956</v>
+        <v>50557</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.365545551696687</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.268843887703562</v>
+        <v>0.2712283687457063</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4623772583124981</v>
+        <v>0.4774960302517877</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>72</v>
@@ -7012,19 +7012,19 @@
         <v>84989</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>69717</v>
+        <v>70251</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>102631</v>
+        <v>101736</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3153180536737839</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2586593306982974</v>
+        <v>0.2606390094313559</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.380771730874462</v>
+        <v>0.3774537299422846</v>
       </c>
     </row>
     <row r="25">
@@ -7041,19 +7041,19 @@
         <v>61011</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>48248</v>
+        <v>49397</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>74501</v>
+        <v>75130</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3727997860329134</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2948132529354691</v>
+        <v>0.3018384112150099</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4552306995936068</v>
+        <v>0.4590768928799082</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -7062,19 +7062,19 @@
         <v>33896</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>24653</v>
+        <v>24701</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>44888</v>
+        <v>44766</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.320143440491066</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2328445824554878</v>
+        <v>0.2332921319231302</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4239510542056049</v>
+        <v>0.4228079153598869</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>83</v>
@@ -7083,19 +7083,19 @@
         <v>94907</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>77456</v>
+        <v>78928</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>111076</v>
+        <v>111749</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3521151940857937</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2873696725600443</v>
+        <v>0.2928328577093702</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4121064844468499</v>
+        <v>0.4146034509032476</v>
       </c>
     </row>
     <row r="26">
@@ -7112,19 +7112,19 @@
         <v>34949</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24992</v>
+        <v>24356</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>48374</v>
+        <v>46877</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2135529968145184</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1527092815529515</v>
+        <v>0.1488258111785136</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2955864815249652</v>
+        <v>0.2864384831776799</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>16</v>
@@ -7133,19 +7133,19 @@
         <v>17705</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11111</v>
+        <v>10888</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>27516</v>
+        <v>27400</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1672196022462684</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1049437487168221</v>
+        <v>0.1028357059624381</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2598831326060284</v>
+        <v>0.2587865783577399</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>47</v>
@@ -7154,19 +7154,19 @@
         <v>52654</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>39776</v>
+        <v>40285</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>66897</v>
+        <v>67888</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1953522016338599</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1475719384641065</v>
+        <v>0.1494606525674947</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2481946928972748</v>
+        <v>0.2518744605665155</v>
       </c>
     </row>
     <row r="27">
@@ -7183,19 +7183,19 @@
         <v>21410</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>13209</v>
+        <v>13719</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>30566</v>
+        <v>32418</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1308245753444581</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08071470046091672</v>
+        <v>0.08383147879028263</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1867733354411836</v>
+        <v>0.1980859476032187</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>13</v>
@@ -7204,19 +7204,19 @@
         <v>15574</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>8912</v>
+        <v>9038</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>25991</v>
+        <v>24802</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1470914055659786</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.084172858248503</v>
+        <v>0.08536239311587203</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2454770940347052</v>
+        <v>0.2342471585257007</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>32</v>
@@ -7225,19 +7225,19 @@
         <v>36984</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>26442</v>
+        <v>25967</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>50488</v>
+        <v>51940</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1372145506065625</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.09810229263762145</v>
+        <v>0.09634090447675843</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1873162625601649</v>
+        <v>0.1927031094565587</v>
       </c>
     </row>
     <row r="28">
@@ -7329,19 +7329,19 @@
         <v>438237</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>404402</v>
+        <v>406319</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>474049</v>
+        <v>477584</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3117292066669236</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2876615681177291</v>
+        <v>0.2890255797223305</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3372037687852541</v>
+        <v>0.339718290243312</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>383</v>
@@ -7350,19 +7350,19 @@
         <v>392986</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>360567</v>
+        <v>361922</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>424244</v>
+        <v>425803</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3815282877340955</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3500546583382252</v>
+        <v>0.3513697773686018</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4118748239283955</v>
+        <v>0.4133889677174943</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>790</v>
@@ -7371,19 +7371,19 @@
         <v>831223</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>780380</v>
+        <v>786354</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>877211</v>
+        <v>881344</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.34124458607894</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3203721152324249</v>
+        <v>0.3228246419241287</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3601242298133628</v>
+        <v>0.3618212329389401</v>
       </c>
     </row>
     <row r="30">
@@ -7400,19 +7400,19 @@
         <v>457737</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>426302</v>
+        <v>420434</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>494569</v>
+        <v>494490</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3256000912173072</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3032393905631542</v>
+        <v>0.2990654812486779</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3517995463493412</v>
+        <v>0.3517437546097935</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>313</v>
@@ -7421,19 +7421,19 @@
         <v>316017</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>284411</v>
+        <v>287631</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>343554</v>
+        <v>347483</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.306802961492222</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2761192916416888</v>
+        <v>0.2792451555416058</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3335377091364105</v>
+        <v>0.3373524609692092</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>737</v>
@@ -7442,19 +7442,19 @@
         <v>773753</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>731131</v>
+        <v>726352</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>821670</v>
+        <v>823401</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3176514992414493</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.300153636738891</v>
+        <v>0.2981916507785099</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3373229350836898</v>
+        <v>0.3380335061018665</v>
       </c>
     </row>
     <row r="31">
@@ -7471,19 +7471,19 @@
         <v>321040</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>289702</v>
+        <v>289045</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>354025</v>
+        <v>352471</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2283644042935244</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2060725960026524</v>
+        <v>0.2056049225140353</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2518270757295383</v>
+        <v>0.2507218573689393</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>206</v>
@@ -7492,19 +7492,19 @@
         <v>210542</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>183546</v>
+        <v>184885</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>236427</v>
+        <v>239295</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2044035419069702</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1781947343573157</v>
+        <v>0.1794944725107689</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2295338827700104</v>
+        <v>0.2323183274816437</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>510</v>
@@ -7513,19 +7513,19 @@
         <v>531582</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>492629</v>
+        <v>490420</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>573607</v>
+        <v>574555</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2182322659678398</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2022406650387336</v>
+        <v>0.2013337075506973</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2354847176957973</v>
+        <v>0.235873834711634</v>
       </c>
     </row>
     <row r="32">
@@ -7542,19 +7542,19 @@
         <v>188811</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>162904</v>
+        <v>162027</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>216353</v>
+        <v>217236</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1343062978222448</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1158780830616908</v>
+        <v>0.1152537481498158</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1538978150433204</v>
+        <v>0.1545258442915541</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>104</v>
@@ -7563,19 +7563,19 @@
         <v>110486</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>91063</v>
+        <v>91862</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>132087</v>
+        <v>132908</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1072652088667123</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08840778330457101</v>
+        <v>0.0891839371848851</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1282356789597064</v>
+        <v>0.1290331572662572</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>276</v>
@@ -7584,19 +7584,19 @@
         <v>299298</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>267438</v>
+        <v>267214</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>333407</v>
+        <v>333805</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.122871648711771</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1097921871100336</v>
+        <v>0.1097003956610641</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1368745607793962</v>
+        <v>0.1370379393635456</v>
       </c>
     </row>
     <row r="33">
@@ -7929,19 +7929,19 @@
         <v>8255</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2620</v>
+        <v>3016</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17966</v>
+        <v>18466</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.172386821393083</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05470043994794612</v>
+        <v>0.06298361217607545</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3751577166425767</v>
+        <v>0.3856055676733894</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -7950,19 +7950,19 @@
         <v>11417</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4578</v>
+        <v>4747</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20867</v>
+        <v>22347</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2409994389515862</v>
+        <v>0.2409994389515861</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09663627406639601</v>
+        <v>0.1002062035029867</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4404546508928924</v>
+        <v>0.4716998597470479</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -7971,19 +7971,19 @@
         <v>19673</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10293</v>
+        <v>10620</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31586</v>
+        <v>32876</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2065083314271391</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1080436230013307</v>
+        <v>0.1114833317911295</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3315658848009725</v>
+        <v>0.3451091694474337</v>
       </c>
     </row>
     <row r="5">
@@ -8000,19 +8000,19 @@
         <v>14256</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6503</v>
+        <v>5592</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>26599</v>
+        <v>25707</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2976878613901021</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1357935600332923</v>
+        <v>0.1167718157927475</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5554278802744267</v>
+        <v>0.5368066162235071</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -8021,19 +8021,19 @@
         <v>20464</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11893</v>
+        <v>11966</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>29806</v>
+        <v>28827</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4319581215544679</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2510445568177292</v>
+        <v>0.252575962517022</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6291444626102292</v>
+        <v>0.6084831884562335</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>22</v>
@@ -8042,19 +8042,19 @@
         <v>34720</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23352</v>
+        <v>21835</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>48113</v>
+        <v>48309</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.36446135280467</v>
+        <v>0.3644613528046699</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2451290770898935</v>
+        <v>0.2292012230124992</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5050481654688119</v>
+        <v>0.5071077554857539</v>
       </c>
     </row>
     <row r="6">
@@ -8071,19 +8071,19 @@
         <v>14083</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6072</v>
+        <v>6069</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25193</v>
+        <v>26131</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.294068783806743</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1268030680471466</v>
+        <v>0.126722620439652</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.526067833535023</v>
+        <v>0.5456591862306681</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -8092,19 +8092,19 @@
         <v>12501</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5598</v>
+        <v>6239</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>20767</v>
+        <v>20913</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2638798323850692</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1181639056354202</v>
+        <v>0.1317028131676641</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4383596416093292</v>
+        <v>0.4414295876162936</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>15</v>
@@ -8113,19 +8113,19 @@
         <v>26584</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16350</v>
+        <v>16762</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>41499</v>
+        <v>40254</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2790556179269547</v>
+        <v>0.2790556179269548</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1716261739606104</v>
+        <v>0.1759536203431482</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4356229892836815</v>
+        <v>0.4225497605973448</v>
       </c>
     </row>
     <row r="7">
@@ -8142,19 +8142,19 @@
         <v>11295</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0</v>
+        <v>2665</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23547</v>
+        <v>25205</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.235856533410072</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0</v>
+        <v>0.05564575712593315</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.491709937576687</v>
+        <v>0.526313619955726</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -8166,16 +8166,16 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10190</v>
+        <v>10411</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.06316260710887693</v>
+        <v>0.06316260710887692</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2150855142746807</v>
+        <v>0.2197617302322785</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>5</v>
@@ -8184,19 +8184,19 @@
         <v>14287</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4618</v>
+        <v>4694</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30350</v>
+        <v>29514</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1499746978412361</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0484726559093123</v>
+        <v>0.04927434508879362</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3185847773880156</v>
+        <v>0.3098113766155854</v>
       </c>
     </row>
     <row r="8">
@@ -8288,19 +8288,19 @@
         <v>54143</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>39396</v>
+        <v>38060</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>71907</v>
+        <v>72855</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2727080033914367</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1984282640209939</v>
+        <v>0.1917013692312589</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3621787543084691</v>
+        <v>0.366957836641799</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>64</v>
@@ -8309,19 +8309,19 @@
         <v>66108</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>53481</v>
+        <v>53929</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>78918</v>
+        <v>78859</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4139102315817901</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3348496148178273</v>
+        <v>0.3376536298282234</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4941149466310374</v>
+        <v>0.493745141373988</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>95</v>
@@ -8330,19 +8330,19 @@
         <v>120251</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>100806</v>
+        <v>99408</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>142351</v>
+        <v>143546</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.3356583087321084</v>
+        <v>0.3356583087321083</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2813805883795448</v>
+        <v>0.2774804791627553</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.397347149691046</v>
+        <v>0.4006809595879073</v>
       </c>
     </row>
     <row r="10">
@@ -8359,19 +8359,19 @@
         <v>57511</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40982</v>
+        <v>40998</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75016</v>
+        <v>75070</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2896714195913487</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2064183410517439</v>
+        <v>0.2065008820433092</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.377841686315083</v>
+        <v>0.3781103086546844</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -8380,19 +8380,19 @@
         <v>47163</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36084</v>
+        <v>36862</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59559</v>
+        <v>58835</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2952944423548702</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2259286938630027</v>
+        <v>0.23079472004196</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3729084132002657</v>
+        <v>0.3683698446585822</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>85</v>
@@ -8401,19 +8401,19 @@
         <v>104674</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>87249</v>
+        <v>86516</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>126233</v>
+        <v>125489</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2921782568023313</v>
+        <v>0.2921782568023312</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2435390563158113</v>
+        <v>0.2414942227783332</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3523574463501071</v>
+        <v>0.3502794500573325</v>
       </c>
     </row>
     <row r="11">
@@ -8430,19 +8430,19 @@
         <v>43303</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29170</v>
+        <v>30611</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>59259</v>
+        <v>60444</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2181079356420827</v>
+        <v>0.2181079356420828</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1469234300824724</v>
+        <v>0.1541809291789175</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.298474533637571</v>
+        <v>0.3044453232183291</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -8451,19 +8451,19 @@
         <v>28208</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18510</v>
+        <v>19066</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>40909</v>
+        <v>39685</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1766136917409331</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1158906137333912</v>
+        <v>0.1193728546211586</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.256138982143198</v>
+        <v>0.248471923628663</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>55</v>
@@ -8472,19 +8472,19 @@
         <v>71511</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>54374</v>
+        <v>55379</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>91701</v>
+        <v>91676</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1996091105390088</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1517758574919166</v>
+        <v>0.1545791214578728</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2559651911199511</v>
+        <v>0.2558953733234339</v>
       </c>
     </row>
     <row r="12">
@@ -8501,19 +8501,19 @@
         <v>43582</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>29842</v>
+        <v>27608</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>62081</v>
+        <v>60798</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2195126413751319</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1503083711359168</v>
+        <v>0.1390570299165673</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3126903993574709</v>
+        <v>0.3062262528548435</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>15</v>
@@ -8522,19 +8522,19 @@
         <v>18237</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>10878</v>
+        <v>11170</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29611</v>
+        <v>28294</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1141816343224065</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0681113926320879</v>
+        <v>0.06993696364132997</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1853970873058487</v>
+        <v>0.1771494810858587</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>37</v>
@@ -8543,19 +8543,19 @@
         <v>61818</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>43532</v>
+        <v>43012</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>81175</v>
+        <v>82236</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1725543239265515</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1215108958099712</v>
+        <v>0.1200605853034217</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2265849325230185</v>
+        <v>0.2295469378194722</v>
       </c>
     </row>
     <row r="13">
@@ -8647,19 +8647,19 @@
         <v>95559</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>80073</v>
+        <v>79646</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>115345</v>
+        <v>114007</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3473061136201321</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2910223970810047</v>
+        <v>0.2894719485059364</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4192170374060574</v>
+        <v>0.4143543595325394</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -8668,19 +8668,19 @@
         <v>48027</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37999</v>
+        <v>37868</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>57730</v>
+        <v>58264</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2686509861908756</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2125555062597045</v>
+        <v>0.2118221058508817</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3229256294586469</v>
+        <v>0.3259124578347751</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>144</v>
@@ -8689,19 +8689,19 @@
         <v>143586</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>125253</v>
+        <v>124597</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>163520</v>
+        <v>165258</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.3163283246771187</v>
+        <v>0.3163283246771186</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2759391188295035</v>
+        <v>0.2744945036493823</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3602445465090592</v>
+        <v>0.3640731225342985</v>
       </c>
     </row>
     <row r="15">
@@ -8718,19 +8718,19 @@
         <v>91791</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>75991</v>
+        <v>76066</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>107120</v>
+        <v>109966</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3336099073360125</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2761859494390264</v>
+        <v>0.2764591268916723</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3893246037294252</v>
+        <v>0.3996674827609458</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>99</v>
@@ -8739,19 +8739,19 @@
         <v>68540</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>58525</v>
+        <v>56456</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>79419</v>
+        <v>79240</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3833946806425927</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3273756680719988</v>
+        <v>0.3158015746956288</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4442506338186947</v>
+        <v>0.4432503421905679</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>184</v>
@@ -8760,19 +8760,19 @@
         <v>160331</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>140506</v>
+        <v>140710</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>180414</v>
+        <v>180342</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3532173029435539</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3095419737701082</v>
+        <v>0.3099909947047126</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.397461474204966</v>
+        <v>0.3973025430271663</v>
       </c>
     </row>
     <row r="16">
@@ -8789,19 +8789,19 @@
         <v>60060</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>46709</v>
+        <v>46806</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>76999</v>
+        <v>76738</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2182843436064855</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1697616626733208</v>
+        <v>0.1701135789855747</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.279849365870297</v>
+        <v>0.2789023339659261</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>56</v>
@@ -8810,19 +8810,19 @@
         <v>43000</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33644</v>
+        <v>34138</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52507</v>
+        <v>53334</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2405318825788262</v>
+        <v>0.2405318825788263</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1881938064563553</v>
+        <v>0.1909567716069189</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2937134042322662</v>
+        <v>0.2983380107858626</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>107</v>
@@ -8831,19 +8831,19 @@
         <v>103060</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>85821</v>
+        <v>85351</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>121775</v>
+        <v>120680</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2270463860735389</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1890694494327892</v>
+        <v>0.1880335287165975</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.26827627004335</v>
+        <v>0.2658653826343129</v>
       </c>
     </row>
     <row r="17">
@@ -8860,19 +8860,19 @@
         <v>27734</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18176</v>
+        <v>17909</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>41876</v>
+        <v>40871</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1007996354373698</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06605864290677028</v>
+        <v>0.06508826686210145</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1521979480349124</v>
+        <v>0.1485453371036294</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>24</v>
@@ -8881,19 +8881,19 @@
         <v>19204</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13121</v>
+        <v>12683</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27847</v>
+        <v>27743</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1074224505877054</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0733947100558108</v>
+        <v>0.07094464968283667</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1557666495533256</v>
+        <v>0.1551855893812818</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>47</v>
@@ -8902,19 +8902,19 @@
         <v>46938</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>34428</v>
+        <v>35670</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>62057</v>
+        <v>63333</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1034079863057886</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07584682550394461</v>
+        <v>0.07858296422308116</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1367153593527716</v>
+        <v>0.1395254172971346</v>
       </c>
     </row>
     <row r="18">
@@ -9006,19 +9006,19 @@
         <v>95969</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>81206</v>
+        <v>80413</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>112511</v>
+        <v>113009</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3354233196642455</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2838245354512461</v>
+        <v>0.281052735780668</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3932373169217948</v>
+        <v>0.3949800007644917</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>114</v>
@@ -9027,19 +9027,19 @@
         <v>75485</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>64088</v>
+        <v>64801</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>86604</v>
+        <v>87230</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3370053372961002</v>
+        <v>0.3370053372961003</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2861205995455059</v>
+        <v>0.2893071562920369</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3866467627768321</v>
+        <v>0.3894407726229264</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>201</v>
@@ -9048,19 +9048,19 @@
         <v>171454</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>149592</v>
+        <v>151762</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>190050</v>
+        <v>192291</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.3361179901860754</v>
+        <v>0.3361179901860752</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2932589136923586</v>
+        <v>0.2975133898298736</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3725717380323773</v>
+        <v>0.3769661201937064</v>
       </c>
     </row>
     <row r="20">
@@ -9077,19 +9077,19 @@
         <v>91969</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>76793</v>
+        <v>77065</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>108099</v>
+        <v>108649</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3214417761965622</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2684011507385373</v>
+        <v>0.2693517288751724</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3778192678386962</v>
+        <v>0.3797410872730211</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>134</v>
@@ -9098,19 +9098,19 @@
         <v>80913</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>70699</v>
+        <v>70093</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>92132</v>
+        <v>93034</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3612374742482748</v>
+        <v>0.3612374742482749</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3156394202679279</v>
+        <v>0.312931077878313</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4113247038514571</v>
+        <v>0.4153545234336307</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>229</v>
@@ -9119,19 +9119,19 @@
         <v>172882</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>154520</v>
+        <v>154336</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>192894</v>
+        <v>194258</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.3389162327231655</v>
+        <v>0.3389162327231653</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3029207039775986</v>
+        <v>0.3025585638114414</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3781470326407242</v>
+        <v>0.380822748927649</v>
       </c>
     </row>
     <row r="21">
@@ -9148,19 +9148,19 @@
         <v>66375</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>52547</v>
+        <v>52995</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>80785</v>
+        <v>82091</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2319893858390249</v>
+        <v>0.2319893858390248</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1836580296138924</v>
+        <v>0.1852235543476876</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2823518761379621</v>
+        <v>0.2869177623374537</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>66</v>
@@ -9169,19 +9169,19 @@
         <v>43281</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>34780</v>
+        <v>34338</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>54295</v>
+        <v>53039</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.193227107699984</v>
+        <v>0.1932271076999841</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1552768642823232</v>
+        <v>0.15330497901287</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2424002956924885</v>
+        <v>0.2367955102875001</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>127</v>
@@ -9190,19 +9190,19 @@
         <v>109656</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>94863</v>
+        <v>92820</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>128868</v>
+        <v>126536</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.2149687082941157</v>
+        <v>0.2149687082941156</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1859689567383887</v>
+        <v>0.1819630090637734</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2526311804565209</v>
+        <v>0.2480593080210092</v>
       </c>
     </row>
     <row r="22">
@@ -9219,19 +9219,19 @@
         <v>31800</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21531</v>
+        <v>21838</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>44957</v>
+        <v>44257</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1111455183001676</v>
+        <v>0.1111455183001675</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07525430356417204</v>
+        <v>0.07632475813525881</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.157130235051289</v>
+        <v>0.1546836206827487</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -9240,19 +9240,19 @@
         <v>24309</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17838</v>
+        <v>17199</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32871</v>
+        <v>31552</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1085300807556408</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07964007506154833</v>
+        <v>0.07678611583590143</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1467546829278959</v>
+        <v>0.1408658342939273</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>62</v>
@@ -9261,19 +9261,19 @@
         <v>56110</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>43088</v>
+        <v>43469</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>70086</v>
+        <v>71872</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1099970687966436</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08446959391688846</v>
+        <v>0.08521584853619478</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1373953324771129</v>
+        <v>0.1408975581164127</v>
       </c>
     </row>
     <row r="23">
@@ -9365,19 +9365,19 @@
         <v>48139</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>37110</v>
+        <v>37760</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>60351</v>
+        <v>59028</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2983854077669369</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2300201480346372</v>
+        <v>0.2340518373654198</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3740761490835626</v>
+        <v>0.3658753454744836</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>48</v>
@@ -9386,19 +9386,19 @@
         <v>29917</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>23492</v>
+        <v>23513</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>37680</v>
+        <v>36892</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2948224866430479</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2315083474078695</v>
+        <v>0.2317203935063901</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3713333904600957</v>
+        <v>0.3635659443864458</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>98</v>
@@ -9407,19 +9407,19 @@
         <v>78056</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>66312</v>
+        <v>64506</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>92796</v>
+        <v>90901</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2970097153696464</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.252322015372355</v>
+        <v>0.2454526304859081</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3530959503318618</v>
+        <v>0.3458869378213534</v>
       </c>
     </row>
     <row r="25">
@@ -9436,19 +9436,19 @@
         <v>55658</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>44873</v>
+        <v>45469</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>69427</v>
+        <v>68311</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.344988900854276</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2781418419251548</v>
+        <v>0.2818307893854279</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4303329256315538</v>
+        <v>0.4234172745855092</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>57</v>
@@ -9457,19 +9457,19 @@
         <v>32148</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>25453</v>
+        <v>25087</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39784</v>
+        <v>39922</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3168148427068446</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2508319191844938</v>
+        <v>0.2472317032405896</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3920657385201788</v>
+        <v>0.393425616070967</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>116</v>
@@ -9478,19 +9478,19 @@
         <v>87806</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>73839</v>
+        <v>74440</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>102104</v>
+        <v>101703</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3341105130801629</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2809623599152015</v>
+        <v>0.2832516011731769</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3885144986566165</v>
+        <v>0.3869872177455</v>
       </c>
     </row>
     <row r="26">
@@ -9507,19 +9507,19 @@
         <v>31743</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>23053</v>
+        <v>22559</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>41618</v>
+        <v>41408</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1967532208842903</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.142890704601638</v>
+        <v>0.1398306437375831</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2579604674837481</v>
+        <v>0.2566602292028636</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>41</v>
@@ -9528,19 +9528,19 @@
         <v>25253</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>18920</v>
+        <v>19460</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>32553</v>
+        <v>32098</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2488613447753445</v>
+        <v>0.2488613447753446</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1864536457556347</v>
+        <v>0.1917781068031718</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.320803061628358</v>
+        <v>0.3163254014305276</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>77</v>
@@ -9549,19 +9549,19 @@
         <v>56995</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>45837</v>
+        <v>44533</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>69897</v>
+        <v>68689</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2168728775877069</v>
+        <v>0.2168728775877068</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1744121277568318</v>
+        <v>0.1694527225442752</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.265964619845454</v>
+        <v>0.2613676648433736</v>
       </c>
     </row>
     <row r="27">
@@ -9578,19 +9578,19 @@
         <v>25793</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>17153</v>
+        <v>18031</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>36436</v>
+        <v>36358</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1598724704944967</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1063186764047674</v>
+        <v>0.1117625974987294</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2258405971309479</v>
+        <v>0.2253593790163764</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>22</v>
@@ -9599,19 +9599,19 @@
         <v>14156</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>9626</v>
+        <v>9027</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>21063</v>
+        <v>20425</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1395013258747629</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.09486167133873356</v>
+        <v>0.08895946638717492</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2075723584603016</v>
+        <v>0.201283125068884</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>47</v>
@@ -9620,19 +9620,19 @@
         <v>39948</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>29911</v>
+        <v>30110</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>51939</v>
+        <v>51280</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1520068939624839</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1138151720801554</v>
+        <v>0.1145719237975432</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1976315416632677</v>
+        <v>0.1951245398625716</v>
       </c>
     </row>
     <row r="28">
@@ -9724,19 +9724,19 @@
         <v>302066</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>272482</v>
+        <v>270698</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>337219</v>
+        <v>336839</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3117240990685232</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2811944370929703</v>
+        <v>0.2793530698792452</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3480003454171945</v>
+        <v>0.3476082640903074</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>297</v>
@@ -9745,19 +9745,19 @@
         <v>230954</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>209589</v>
+        <v>208290</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>254355</v>
+        <v>253934</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3246823521434246</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2946466134640044</v>
+        <v>0.2928202497077009</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3575800541110139</v>
+        <v>0.3569884941951787</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>549</v>
@@ -9766,19 +9766,19 @@
         <v>533020</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>494903</v>
+        <v>493959</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>572840</v>
+        <v>571083</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3172095969228061</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2945251927130882</v>
+        <v>0.2939637276782338</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3409067007449413</v>
+        <v>0.3398612933007931</v>
       </c>
     </row>
     <row r="30">
@@ -9795,19 +9795,19 @@
         <v>311185</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>280154</v>
+        <v>278018</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>346048</v>
+        <v>342027</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3211339658626617</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2891111198864911</v>
+        <v>0.2869069635424353</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3571116516408814</v>
+        <v>0.3529621424758236</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>351</v>
@@ -9816,19 +9816,19 @@
         <v>249228</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>224162</v>
+        <v>228995</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>271994</v>
+        <v>272833</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.3503727505596075</v>
+        <v>0.3503727505596074</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3151336991209522</v>
+        <v>0.3219279724253913</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3823775860841511</v>
+        <v>0.3835568672222386</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>636</v>
@@ -9837,19 +9837,19 @@
         <v>560413</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>521179</v>
+        <v>522563</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>604795</v>
+        <v>599137</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.3335113511313282</v>
+        <v>0.3335113511313281</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3101625450996389</v>
+        <v>0.3109862278741354</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3599238111664935</v>
+        <v>0.3565569876007312</v>
       </c>
     </row>
     <row r="31">
@@ -9866,19 +9866,19 @@
         <v>215563</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>186321</v>
+        <v>186089</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>246627</v>
+        <v>245453</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2224552852290849</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1922785339182619</v>
+        <v>0.1920389804441948</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2545122093976666</v>
+        <v>0.2533009246529803</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>198</v>
@@ -9887,19 +9887,19 @@
         <v>152243</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>134040</v>
+        <v>132135</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>172933</v>
+        <v>171010</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2140276261859682</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1884372566480478</v>
+        <v>0.1857596152657989</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2431149405227258</v>
+        <v>0.2404105237547457</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>381</v>
@@ -9908,19 +9908,19 @@
         <v>367806</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>333897</v>
+        <v>335785</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>404486</v>
+        <v>406215</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2188876819934924</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1987081227092153</v>
+        <v>0.1998316801205293</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2407163348350231</v>
+        <v>0.2417454552251102</v>
       </c>
     </row>
     <row r="32">
@@ -9937,19 +9937,19 @@
         <v>140204</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>115295</v>
+        <v>116350</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>168076</v>
+        <v>170867</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1446866498397302</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1189815564564794</v>
+        <v>0.1200705105189127</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1734498541300763</v>
+        <v>0.1763302496672639</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>98</v>
@@ -9958,19 +9958,19 @@
         <v>78898</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>66019</v>
+        <v>64136</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>95197</v>
+        <v>96832</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1109172711109999</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09281165059008674</v>
+        <v>0.09016453204535964</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1338311671631693</v>
+        <v>0.1361289360035794</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>198</v>
@@ -9979,19 +9979,19 @@
         <v>219102</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>190054</v>
+        <v>190032</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>257644</v>
+        <v>253986</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1303913699523734</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1131045421733607</v>
+        <v>0.1130910883254194</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1533281720686754</v>
+        <v>0.1511515066679392</v>
       </c>
     </row>
     <row r="33">
